--- a/medicine/Mort/Décès_en_1950/Décès_en_1950.xlsx
+++ b/medicine/Mort/Décès_en_1950/Décès_en_1950.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1950</t>
+          <t>Décès_en_1950</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1950</t>
+          <t>Décès_en_1950</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,17 +540,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Henri-Georges Bréard, peintre français (° 1873).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Henri-Georges Bréard, peintre français (° 1873).
 Pierre-Louis Cazaubon, peintre décorateur français de genre, de paysages et de marine (° 28 juin 1872).
 Céline Deldebat de Gonzalva, peintre française (° 1864).
 Paul Paquereau, décorateur de théâtre et peintre français (° 17 janvier 1871).
 Giuseppe Savini, musicien italien (° 21 août 1883).
 André Sivade, peintre postimpressionniste français (° 1880).
 Vers 1950 :
-Richard Pirl, peintre figuratif et photographe suisse  (° vers 1890).
-Janvier
-2 janvier :
+Richard Pirl, peintre figuratif et photographe suisse  (° vers 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier :
 Emil Jannings, acteur allemand (° 23 juillet 1884).
 Theophrastos Sakellaridis, compositeur, chef d'orchestre grec (° 7 septembre 1883).
 6 janvier :
@@ -554,9 +605,43 @@
 21 janvier :
 Eduardo Callejo de la Cuesta, avocat et homme politique espagnol (° 21 septembre 1875).
 George Orwell, écrivain britannique (° 25 juin 1903).
-26 janvier : François Joseph Vernay, peintre impressionniste suisse (° 22 avril 1864).
-Février
-3 février :
+26 janvier : François Joseph Vernay, peintre impressionniste suisse (° 22 avril 1864).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 février :
 André Astoul, peintre français (° 8 novembre 1886).
 Louis Berlaimont, homme politique belge (° 22 mars 1881).
 8 février : Aleksandrs Čaks, poète et écrivain letton (° 27 octobre 1901).
@@ -569,9 +654,43 @@
 Pedro Parages, footballeur franco-espagnol (° 17 décembre 1883).
 17 février : Tigrane Polat, peintre et illustrateur franco-égyptien d'origine arménienne (° 23 mars 1874).
 21 février : Frank Keeping, coureur cycliste britannique (° 11 août 1867).
-26 février : Harry Lauder, artiste et amuseur écossais (° 4 août 1870).
-Mars
-1er mars : Alfred Korzybski, scientifique pluridisciplinaire et expert du renseignement américain (° 3 juillet 1879).
+26 février : Harry Lauder, artiste et amuseur écossais (° 4 août 1870).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Alfred Korzybski, scientifique pluridisciplinaire et expert du renseignement américain (° 3 juillet 1879).
 6 mars : Albert Lebrun, ancien président de la République française (° 29 août 1871).
 9 mars : Edith Best, musicienne irlandaise (° 11 juillet 1865).
 11 mars : Heinrich Mann, écrivain allemand (° 27 mars 1871).
@@ -583,9 +702,43 @@
 25 mars  Frank Buck, aventurier, chasseur, collectionneur, acteur et producteur américain (° 17 mars 1884).
 29 mars : Lucien-Victor Guirand de Scévola, peintre, dessinateur et illustrateur français (° 14 novembre 1871).
 30 mars : Léon Blum, homme politique français (° 9 avril 1872).
-31 mars : Michisei Kohno, peintre, illustrateur et graveur japonais (° 10 juin 1895).
-Avril
-1er avril : Maurice Perronnet, peintre, administrateur de théâtre et maître d'armes français (° 19 octobre 1877).
+31 mars : Michisei Kohno, peintre, illustrateur et graveur japonais (° 10 juin 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Maurice Perronnet, peintre, administrateur de théâtre et maître d'armes français (° 19 octobre 1877).
 5 avril : Hiroshi Yoshida, peintre et imprimeur d'estampes sur bois japonais (° 19 septembre 1876).
 8 avril : Vaslav Nijinski, danseur russe (° 12 mars 1889).
 10 avril : Minka Govekar, féministe slovaque (° 28 octobre 1874).
@@ -598,19 +751,121 @@
 17 avril : Georges d'Espagnat, peintre, illustrateur et graveur français (° 14 août 1870).
 24 avril : Pierre Theunis, [sculpteur belge (° 1er mai 1883).
 26 avril : Joseph Asal, peintre allemand et français (° 2 février 1875).
-? avril : Guillermo Rivero, footballeur puis |entraineur péruvien (° 1897).
-Mai
-2 mai : Victor Crumière, peintre et plasticien français (° 22 novembre 1895).
+? avril : Guillermo Rivero, footballeur puis |entraineur péruvien (° 1897).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai : Victor Crumière, peintre et plasticien français (° 22 novembre 1895).
 3 mai : André Perchicot, coureur cycliste puis chanteur français (° 9 août 1888).
 4 mai : William Rose Benét, poète et éditeur américain (° 2 février 1886).
 8 mai : Franklin Dyall, acteur, producteur et réalisateur britannique (° 3 février 1874).
 10 mai : John Gould Fletcher, poète imagiste américain (° 3 janvier 1886).
-11 mai : Alméry Lobel-Riche, peintre, graveur et illustrateur français (° 3 mai 1877).
-Juin
-2 juin : Didier Masson, aviateur français (° 23 février 1886).
-26 juin : Camille Danguillaume, coureur cycliste français (° 4 juin 1919).
-Juillet
-2 juillet : Paul Chmaroff, peintre russe (° 22 septembre 1874).
+11 mai : Alméry Lobel-Riche, peintre, graveur et illustrateur français (° 3 mai 1877).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Didier Masson, aviateur français (° 23 février 1886).
+26 juin : Camille Danguillaume, coureur cycliste français (° 4 juin 1919).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet : Paul Chmaroff, peintre russe (° 22 septembre 1874).
 5 juillet : Robert Spears, coureur cycliste sur piste australien (° 19 novembre 1893).
 7 juillet : Fats Navarro, trompettiste de jazz américain (° 24 septembre 1923).
 8 juillet : Siti binti Saad, chanteuse de l'archipel de Zanzibar (° 1880).
@@ -624,9 +879,43 @@
 Gleason Belzile, homme politique fédéral provenant du Québec (° 30 août 1898).
 Jean-Gabriel Daragnès, peintre et graveur français (° 2 avril 1886).
 30 juillet : Raoul Bardac, compositeur et pianiste français (° 30 mars 1881).
-31 juillet : Émile Quentin-Brin, peintre français (° 2 juin 1863).
-Août
-2 août : Pierre-François Casgrain, homme politique fédéral provenant du Québec (° 4 août 1886).
+31 juillet : Émile Quentin-Brin, peintre français (° 2 juin 1863).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août : Pierre-François Casgrain, homme politique fédéral provenant du Québec (° 4 août 1886).
 3 août :
 Georg Høeberg, compositeur et chef d'orchestre danois (° 27 décembre 1872).
 Hélène Oettingen, peintre et femme de lettres française (° 21 mai 1885).
@@ -639,17 +928,85 @@
 Julien Lahaut, homme politique belge (° 6 septembre 1884).
 Kurt Von Jesser, général allemand(° 4 novembre 1890).
 19 août : Black Elk (Heȟáka Sápa), en français Wapiti noir ou Élan noir, docteur et homme sacré de la tribu des indiens Lakotas (Sioux). (° décembre 1863)
-27 août : Cesare Pavese, écrivain italien (° 9 septembre 1908).
-Septembre
-1er septembre : Fritz Kampers, acteur allemand (° 14 juillet 1891).
+27 août : Cesare Pavese, écrivain italien (° 9 septembre 1908).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : Fritz Kampers, acteur allemand (° 14 juillet 1891).
 3 septembre : Zhang Renjie, homme politique et homme d'affaires chinois (° 19 septembre 1877).
 10 septembre : Joe Bordeaux, acteur américain (° 9 mars 1886).
 14 septembre : Belarmino Tomás, syndicaliste et homme politique socialiste espagnol (° 29 avril 1892).
 17 septembre : Percy Standing, acteur anglais (° 26 octobre 1882).
 19 septembre : Paul Émile Lecomte, peintre français (° 29 octobre 1877).
-29 septembre : Alfréd Meissner, homme politique tchécoslovaque (° 10 avril 1871).
-Octobre
-1er octobre : Alexeï Alexandrovitch Kouznetsov, homme politique russe puis soviétique (° 20 février 1905).
+29 septembre : Alfréd Meissner, homme politique tchécoslovaque (° 10 avril 1871).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Alexeï Alexandrovitch Kouznetsov, homme politique russe puis soviétique (° 20 février 1905).
 5 octobre : George Desvallières, peintre français (° 14 mars 1861).
 8 octobre : Carl Beines, chef d'orchestre, professeur de musique et compositeur allemand (° 15 décembre 1869).
 13 octobre : Xavier Haas, peintre et graveur français (° 1907).
@@ -657,9 +1014,43 @@
 18 octobre : Giuseppe Borgatti, ténor italien (° 17 mars 1871).
 19 octobre : Charles Colquhoun Ballantyne, homme politique canadien (° 9 août 1867).
 23 octobre : Al Jolson, chanteur de jazz et acteur américain d'origine lituanienn (° 26 mai 1886).
-29 octobre : Gustav V, roi de Suède (° 16 juin 1858).
-Novembre
-1er novembre : Louis Magnus, patineur artistique et dirigeant de hockey sur glace français (° 25 mai 1881).
+29 octobre : Gustav V, roi de Suède (° 16 juin 1858).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Louis Magnus, patineur artistique et dirigeant de hockey sur glace français (° 25 mai 1881).
 2 novembre :
 Esy Morales, musicien portoricain (° 3 mars 1917).
 George Bernard Shaw, écrivain britannique d'origine irlandaise (° 26 juillet 1856).
@@ -673,9 +1064,43 @@
 23 novembre : Charles-Auguste Edelmann, peintre et illustrateur français (° 16 août 1879).
 24 novembre : Gaëtan Dumas, peintre et poète français (° 22 janvier 1879).
 25 novembre : Johannes V. Jensen, écrivain danois (° 20 janvier 1873).
-30 novembre : Édouard-Alexandre Bernard, peintre, affichiste, caricaturiste, graveur et dessinateur français (° 20 mars 1879).
-Décembre
-1er décembre : 31 décembre : Ernest John Moeran, compositeur anglais (° 31 décembre 1894).
+30 novembre : Édouard-Alexandre Bernard, peintre, affichiste, caricaturiste, graveur et dessinateur français (° 20 mars 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1er décembre : 31 décembre : Ernest John Moeran, compositeur anglais (° 31 décembre 1894).
 2 décembre : Dinu Lipatti, pianiste roumain (° 19 mars 1917).
 4 décembre : Abing, musicien chinois (° 17 août 1893).
 6 décembre : Ernest-Marie Pernelle, peintre français (° 24 novembre 1861).
@@ -696,9 +1121,43 @@
 31 décembre :
 Jules Buysse, coureur cycliste belge (° 13 août 1901).
 Charles Koechlin, compositeur français (° 27 novembre 1867).
-? décembre : Louis Cler, footballeur français (° 30 décembre 1905).
-Date précise inconnue
-Albert Lynch, peintre et illustrateur d'origine allemande et péruvienne naturalisé français (° 26 septembre 1860).
+? décembre : Louis Cler, footballeur français (° 30 décembre 1905).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1950</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1950</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Albert Lynch, peintre et illustrateur d'origine allemande et péruvienne naturalisé français (° 26 septembre 1860).
 Kojo Thompson, homme politique ghanéen (° 1880).</t>
         </is>
       </c>
